--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf14</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H2">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I2">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J2">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N2">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O2">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P2">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q2">
-        <v>10.32171072829426</v>
+        <v>2.550089402058333</v>
       </c>
       <c r="R2">
-        <v>10.32171072829426</v>
+        <v>22.950804618525</v>
       </c>
       <c r="S2">
-        <v>0.03305210080353693</v>
+        <v>0.006004231897328314</v>
       </c>
       <c r="T2">
-        <v>0.03305210080353693</v>
+        <v>0.006374176501169903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H3">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I3">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J3">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N3">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O3">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P3">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q3">
-        <v>11.89926252009562</v>
+        <v>2.945580567616112</v>
       </c>
       <c r="R3">
-        <v>11.89926252009562</v>
+        <v>26.510225108545</v>
       </c>
       <c r="S3">
-        <v>0.0381037247269324</v>
+        <v>0.006935423042798297</v>
       </c>
       <c r="T3">
-        <v>0.0381037247269324</v>
+        <v>0.007362742036120908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H4">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I4">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J4">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N4">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O4">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P4">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q4">
-        <v>48.34185456087636</v>
+        <v>16.02075563280055</v>
       </c>
       <c r="R4">
-        <v>48.34185456087636</v>
+        <v>144.186800695205</v>
       </c>
       <c r="S4">
-        <v>0.1547999059493169</v>
+        <v>0.03772116064327809</v>
       </c>
       <c r="T4">
-        <v>0.1547999059493169</v>
+        <v>0.04004531135385138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H5">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I5">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J5">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N5">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O5">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P5">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q5">
-        <v>62.28230271734058</v>
+        <v>15.01096854095056</v>
       </c>
       <c r="R5">
-        <v>62.28230271734058</v>
+        <v>135.098716868555</v>
       </c>
       <c r="S5">
-        <v>0.199439899245281</v>
+        <v>0.03534359856192425</v>
       </c>
       <c r="T5">
-        <v>0.199439899245281</v>
+        <v>0.03752125821796539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.06134832042742</v>
+        <v>0.7366783333333333</v>
       </c>
       <c r="H6">
-        <v>3.06134832042742</v>
+        <v>2.210035</v>
       </c>
       <c r="I6">
-        <v>0.4521382358455511</v>
+        <v>0.09074305167129322</v>
       </c>
       <c r="J6">
-        <v>0.4521382358455511</v>
+        <v>0.09465722399429256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72799506347501</v>
+        <v>2.731955</v>
       </c>
       <c r="N6">
-        <v>2.72799506347501</v>
+        <v>5.46391</v>
       </c>
       <c r="O6">
-        <v>0.05914696656979722</v>
+        <v>0.0522203897564463</v>
       </c>
       <c r="P6">
-        <v>0.05914696656979722</v>
+        <v>0.03543032157151783</v>
       </c>
       <c r="Q6">
-        <v>8.351343105703515</v>
+        <v>2.012572056141667</v>
       </c>
       <c r="R6">
-        <v>8.351343105703515</v>
+        <v>12.07543233685</v>
       </c>
       <c r="S6">
-        <v>0.0267426051204839</v>
+        <v>0.004738637525964278</v>
       </c>
       <c r="T6">
-        <v>0.0267426051204839</v>
+        <v>0.003353735885184979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H7">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J7">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N7">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O7">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P7">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q7">
-        <v>10.0732000910616</v>
+        <v>0.5192638273666667</v>
       </c>
       <c r="R7">
-        <v>10.0732000910616</v>
+        <v>4.6733744463</v>
       </c>
       <c r="S7">
-        <v>0.03225632199818355</v>
+        <v>0.001222616129805947</v>
       </c>
       <c r="T7">
-        <v>0.03225632199818355</v>
+        <v>0.001297946371463112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H8">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J8">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N8">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O8">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P8">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q8">
-        <v>11.61276996190354</v>
+        <v>0.5997960064155555</v>
       </c>
       <c r="R8">
-        <v>11.61276996190354</v>
+        <v>5.39816405774</v>
       </c>
       <c r="S8">
-        <v>0.03718632051341663</v>
+        <v>0.001412230610700776</v>
       </c>
       <c r="T8">
-        <v>0.03718632051341663</v>
+        <v>0.00149924375455372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H9">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J9">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N9">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O9">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P9">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q9">
-        <v>47.17795204527877</v>
+        <v>3.262238131917777</v>
       </c>
       <c r="R9">
-        <v>47.17795204527877</v>
+        <v>29.36014318726</v>
       </c>
       <c r="S9">
-        <v>0.1510728664804072</v>
+        <v>0.007680999039693037</v>
       </c>
       <c r="T9">
-        <v>0.1510728664804072</v>
+        <v>0.00815425593506899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H10">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J10">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N10">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O10">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P10">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q10">
-        <v>60.7827630437305</v>
+        <v>3.056619493717777</v>
       </c>
       <c r="R10">
-        <v>60.7827630437305</v>
+        <v>27.50957544346</v>
       </c>
       <c r="S10">
-        <v>0.1946380851123583</v>
+        <v>0.007196866214714767</v>
       </c>
       <c r="T10">
-        <v>0.1946380851123583</v>
+        <v>0.007640293761523588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.98764177681977</v>
+        <v>0.1500066666666666</v>
       </c>
       <c r="H11">
-        <v>2.98764177681977</v>
+        <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.4412523309732878</v>
+        <v>0.01847762054135585</v>
       </c>
       <c r="J11">
-        <v>0.4412523309732878</v>
+        <v>0.0192746467553281</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.72799506347501</v>
+        <v>2.731955</v>
       </c>
       <c r="N11">
-        <v>2.72799506347501</v>
+        <v>5.46391</v>
       </c>
       <c r="O11">
-        <v>0.05914696656979722</v>
+        <v>0.0522203897564463</v>
       </c>
       <c r="P11">
-        <v>0.05914696656979722</v>
+        <v>0.03543032157151783</v>
       </c>
       <c r="Q11">
-        <v>8.15027201859604</v>
+        <v>0.4098114630333333</v>
       </c>
       <c r="R11">
-        <v>8.15027201859604</v>
+        <v>2.4588687782</v>
       </c>
       <c r="S11">
-        <v>0.02609873686892215</v>
+        <v>0.0009649085464413206</v>
       </c>
       <c r="T11">
-        <v>0.02609873686892215</v>
+        <v>0.0006829069327186874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H12">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I12">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J12">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.3716224512646</v>
+        <v>3.461605</v>
       </c>
       <c r="N12">
-        <v>3.3716224512646</v>
+        <v>10.384815</v>
       </c>
       <c r="O12">
-        <v>0.07310175999984973</v>
+        <v>0.06616740110392129</v>
       </c>
       <c r="P12">
-        <v>0.07310175999984973</v>
+        <v>0.06733956725325306</v>
       </c>
       <c r="Q12">
-        <v>2.433750660670182</v>
+        <v>11.10581193582</v>
       </c>
       <c r="R12">
-        <v>2.433750660670182</v>
+        <v>99.95230742238</v>
       </c>
       <c r="S12">
-        <v>0.007793337198129253</v>
+        <v>0.02614883627882102</v>
       </c>
       <c r="T12">
-        <v>0.007793337198129253</v>
+        <v>0.02775997006637368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H13">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I13">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J13">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.88693519149571</v>
+        <v>3.998462333333334</v>
       </c>
       <c r="N13">
-        <v>3.88693519149571</v>
+        <v>11.995387</v>
       </c>
       <c r="O13">
-        <v>0.08427450214572983</v>
+        <v>0.07642924626252497</v>
       </c>
       <c r="P13">
-        <v>0.08427450214572983</v>
+        <v>0.07778320264879995</v>
       </c>
       <c r="Q13">
-        <v>2.805720755221793</v>
+        <v>12.828202728636</v>
       </c>
       <c r="R13">
-        <v>2.805720755221793</v>
+        <v>115.453824557724</v>
       </c>
       <c r="S13">
-        <v>0.0089844569053808</v>
+        <v>0.03020423674028841</v>
       </c>
       <c r="T13">
-        <v>0.0089844569053808</v>
+        <v>0.0320652398771252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H14">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I14">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J14">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.7910337214182</v>
+        <v>21.74728766666667</v>
       </c>
       <c r="N14">
-        <v>15.7910337214182</v>
+        <v>65.241863</v>
       </c>
       <c r="O14">
-        <v>0.3423729595879522</v>
+        <v>0.4156920000874432</v>
       </c>
       <c r="P14">
-        <v>0.3423729595879522</v>
+        <v>0.4230560507063459</v>
       </c>
       <c r="Q14">
-        <v>11.39850007160562</v>
+        <v>69.771475064364</v>
       </c>
       <c r="R14">
-        <v>11.39850007160562</v>
+        <v>627.943275579276</v>
       </c>
       <c r="S14">
-        <v>0.03650018715822816</v>
+        <v>0.1642782075667473</v>
       </c>
       <c r="T14">
-        <v>0.03650018715822816</v>
+        <v>0.1744000412096366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.721833685665888</v>
+        <v>3.208284</v>
       </c>
       <c r="H15">
-        <v>0.721833685665888</v>
+        <v>9.624852000000001</v>
       </c>
       <c r="I15">
-        <v>0.1066094331811611</v>
+        <v>0.3951921315112883</v>
       </c>
       <c r="J15">
-        <v>0.1066094331811611</v>
+        <v>0.4122386168888342</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.3447292494455</v>
+        <v>20.37655766666667</v>
       </c>
       <c r="N15">
-        <v>20.3447292494455</v>
+        <v>61.129673</v>
       </c>
       <c r="O15">
-        <v>0.4411038116966709</v>
+        <v>0.3894909627896643</v>
       </c>
       <c r="P15">
-        <v>0.4411038116966709</v>
+        <v>0.3963908578200832</v>
       </c>
       <c r="Q15">
-        <v>14.68551089800184</v>
+        <v>65.37378393704401</v>
       </c>
       <c r="R15">
-        <v>14.68551089800184</v>
+        <v>588.3640554333961</v>
       </c>
       <c r="S15">
-        <v>0.04702582733903169</v>
+        <v>0.1539237637892313</v>
       </c>
       <c r="T15">
-        <v>0.04702582733903169</v>
+        <v>0.1634076189751296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.208284</v>
+      </c>
+      <c r="H16">
+        <v>9.624852000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.3951921315112883</v>
+      </c>
+      <c r="J16">
+        <v>0.4122386168888342</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.731955</v>
+      </c>
+      <c r="N16">
+        <v>5.46391</v>
+      </c>
+      <c r="O16">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="P16">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="Q16">
+        <v>8.764887515220002</v>
+      </c>
+      <c r="R16">
+        <v>52.58932509132001</v>
+      </c>
+      <c r="S16">
+        <v>0.02063708713620026</v>
+      </c>
+      <c r="T16">
+        <v>0.01460574676056914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.048665</v>
+      </c>
+      <c r="I17">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J17">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.461605</v>
+      </c>
+      <c r="N17">
+        <v>10.384815</v>
+      </c>
+      <c r="O17">
+        <v>0.06616740110392129</v>
+      </c>
+      <c r="P17">
+        <v>0.06733956725325306</v>
+      </c>
+      <c r="Q17">
+        <v>10.44096800244167</v>
+      </c>
+      <c r="R17">
+        <v>93.96871202197499</v>
+      </c>
+      <c r="S17">
+        <v>0.02458344914050605</v>
+      </c>
+      <c r="T17">
+        <v>0.02609813320149163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H18">
+        <v>9.048665</v>
+      </c>
+      <c r="I18">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J18">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.998462333333334</v>
+      </c>
+      <c r="N18">
+        <v>11.995387</v>
+      </c>
+      <c r="O18">
+        <v>0.07642924626252497</v>
+      </c>
+      <c r="P18">
+        <v>0.07778320264879995</v>
+      </c>
+      <c r="Q18">
+        <v>12.06024872315056</v>
+      </c>
+      <c r="R18">
+        <v>108.542238508355</v>
+      </c>
+      <c r="S18">
+        <v>0.0283960750610567</v>
+      </c>
+      <c r="T18">
+        <v>0.03014567016643446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H19">
+        <v>9.048665</v>
+      </c>
+      <c r="I19">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J19">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.74728766666667</v>
+      </c>
+      <c r="N19">
+        <v>65.241863</v>
+      </c>
+      <c r="O19">
+        <v>0.4156920000874432</v>
+      </c>
+      <c r="P19">
+        <v>0.4230560507063459</v>
+      </c>
+      <c r="Q19">
+        <v>65.59464025143276</v>
+      </c>
+      <c r="R19">
+        <v>590.3517622628949</v>
+      </c>
+      <c r="S19">
+        <v>0.1544437740000533</v>
+      </c>
+      <c r="T19">
+        <v>0.163959669082932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H20">
+        <v>9.048665</v>
+      </c>
+      <c r="I20">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J20">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="N20">
+        <v>61.129673</v>
+      </c>
+      <c r="O20">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="P20">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="Q20">
+        <v>61.46021472628278</v>
+      </c>
+      <c r="R20">
+        <v>553.1419325365449</v>
+      </c>
+      <c r="S20">
+        <v>0.144709193873099</v>
+      </c>
+      <c r="T20">
+        <v>0.1536253027634702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.016221666666667</v>
+      </c>
+      <c r="H21">
+        <v>9.048665</v>
+      </c>
+      <c r="I21">
+        <v>0.3715341502063191</v>
+      </c>
+      <c r="J21">
+        <v>0.3875601561759498</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.731955</v>
+      </c>
+      <c r="N21">
+        <v>5.46391</v>
+      </c>
+      <c r="O21">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="P21">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="Q21">
+        <v>8.240181863358334</v>
+      </c>
+      <c r="R21">
+        <v>49.44109118015</v>
+      </c>
+      <c r="S21">
+        <v>0.01940165813160405</v>
+      </c>
+      <c r="T21">
+        <v>0.01373138096162158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0070985</v>
+      </c>
+      <c r="H22">
+        <v>2.014197</v>
+      </c>
+      <c r="I22">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J22">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.461605</v>
+      </c>
+      <c r="N22">
+        <v>10.384815</v>
+      </c>
+      <c r="O22">
+        <v>0.06616740110392129</v>
+      </c>
+      <c r="P22">
+        <v>0.06733956725325306</v>
+      </c>
+      <c r="Q22">
+        <v>3.4861772030925</v>
+      </c>
+      <c r="R22">
+        <v>20.917063218555</v>
+      </c>
+      <c r="S22">
+        <v>0.008208267657459948</v>
+      </c>
+      <c r="T22">
+        <v>0.005809341112754738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0070985</v>
+      </c>
+      <c r="H23">
+        <v>2.014197</v>
+      </c>
+      <c r="I23">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J23">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.998462333333334</v>
+      </c>
+      <c r="N23">
+        <v>11.995387</v>
+      </c>
+      <c r="O23">
+        <v>0.07642924626252497</v>
+      </c>
+      <c r="P23">
+        <v>0.07778320264879995</v>
+      </c>
+      <c r="Q23">
+        <v>4.026845418206501</v>
+      </c>
+      <c r="R23">
+        <v>24.16107250923901</v>
+      </c>
+      <c r="S23">
+        <v>0.009481280807680785</v>
+      </c>
+      <c r="T23">
+        <v>0.006710306814565663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="H16">
-        <v>0.721833685665888</v>
-      </c>
-      <c r="I16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="J16">
-        <v>0.1066094331811611</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.72799506347501</v>
-      </c>
-      <c r="N16">
-        <v>2.72799506347501</v>
-      </c>
-      <c r="O16">
-        <v>0.05914696656979722</v>
-      </c>
-      <c r="P16">
-        <v>0.05914696656979722</v>
-      </c>
-      <c r="Q16">
-        <v>1.969158731146515</v>
-      </c>
-      <c r="R16">
-        <v>1.969158731146515</v>
-      </c>
-      <c r="S16">
-        <v>0.006305624580391164</v>
-      </c>
-      <c r="T16">
-        <v>0.006305624580391164</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0070985</v>
+      </c>
+      <c r="H24">
+        <v>2.014197</v>
+      </c>
+      <c r="I24">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J24">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>21.74728766666667</v>
+      </c>
+      <c r="N24">
+        <v>65.241863</v>
+      </c>
+      <c r="O24">
+        <v>0.4156920000874432</v>
+      </c>
+      <c r="P24">
+        <v>0.4230560507063459</v>
+      </c>
+      <c r="Q24">
+        <v>21.9016607881685</v>
+      </c>
+      <c r="R24">
+        <v>131.409964729011</v>
+      </c>
+      <c r="S24">
+        <v>0.05156785883767144</v>
+      </c>
+      <c r="T24">
+        <v>0.03649677312485703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0070985</v>
+      </c>
+      <c r="H25">
+        <v>2.014197</v>
+      </c>
+      <c r="I25">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J25">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.37655766666667</v>
+      </c>
+      <c r="N25">
+        <v>61.129673</v>
+      </c>
+      <c r="O25">
+        <v>0.3894909627896643</v>
+      </c>
+      <c r="P25">
+        <v>0.3963908578200832</v>
+      </c>
+      <c r="Q25">
+        <v>20.5212006612635</v>
+      </c>
+      <c r="R25">
+        <v>123.127203967581</v>
+      </c>
+      <c r="S25">
+        <v>0.048317540350695</v>
+      </c>
+      <c r="T25">
+        <v>0.03419638410199442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0070985</v>
+      </c>
+      <c r="H26">
+        <v>2.014197</v>
+      </c>
+      <c r="I26">
+        <v>0.1240530460697436</v>
+      </c>
+      <c r="J26">
+        <v>0.08626935618559531</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.731955</v>
+      </c>
+      <c r="N26">
+        <v>5.46391</v>
+      </c>
+      <c r="O26">
+        <v>0.0522203897564463</v>
+      </c>
+      <c r="P26">
+        <v>0.03543032157151783</v>
+      </c>
+      <c r="Q26">
+        <v>2.751347782567501</v>
+      </c>
+      <c r="R26">
+        <v>11.00539113027</v>
+      </c>
+      <c r="S26">
+        <v>0.006478098416236398</v>
+      </c>
+      <c r="T26">
+        <v>0.003056551031423453</v>
       </c>
     </row>
   </sheetData>
